--- a/Данные/По сезонам общее.xlsx
+++ b/Данные/По сезонам общее.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Центральный федеральный округ</t>
   </si>
@@ -48,16 +48,22 @@
     <t>Округ</t>
   </si>
   <si>
-    <t>1квартал</t>
-  </si>
-  <si>
-    <t>2квартал</t>
-  </si>
-  <si>
-    <t>3квартал</t>
-  </si>
-  <si>
-    <t>4квартал</t>
+    <t xml:space="preserve">Теплые </t>
+  </si>
+  <si>
+    <t>Холодные</t>
+  </si>
+  <si>
+    <t>1 квартал</t>
+  </si>
+  <si>
+    <t>2 квартал</t>
+  </si>
+  <si>
+    <t>3 квартал</t>
+  </si>
+  <si>
+    <t>4 квартал</t>
   </si>
 </sst>
 </file>
@@ -118,7 +124,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -128,6 +134,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="2"/>
@@ -410,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,27 +429,35 @@
     <col min="2" max="3" width="12.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.140625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -458,8 +473,16 @@
       <c r="E2" s="4">
         <v>5004555</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F2" s="1">
+        <f>C2+D2</f>
+        <v>17144069</v>
+      </c>
+      <c r="G2" s="5">
+        <f>B2+E2</f>
+        <v>13217629</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -475,8 +498,16 @@
       <c r="E3" s="4">
         <v>2853032</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F9" si="0">C3+D3</f>
+        <v>13045684</v>
+      </c>
+      <c r="G3" s="5">
+        <f t="shared" ref="G3:G9" si="1">B3+E3</f>
+        <v>7501809</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -492,8 +523,16 @@
       <c r="E4" s="4">
         <v>3153159</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>12972630</v>
+      </c>
+      <c r="G4" s="5">
+        <f t="shared" si="1"/>
+        <v>5817067</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -509,8 +548,16 @@
       <c r="E5" s="4">
         <v>370347</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>1252582</v>
+      </c>
+      <c r="G5" s="5">
+        <f t="shared" si="1"/>
+        <v>1393560</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -526,8 +573,16 @@
       <c r="E6" s="4">
         <v>1888475</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>6274791</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" si="1"/>
+        <v>4758576</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -543,8 +598,16 @@
       <c r="E7" s="4">
         <v>1110618</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>2769279</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="1"/>
+        <v>2595946</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -560,8 +623,16 @@
       <c r="E8" s="4">
         <v>1195505</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>3536551</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="1"/>
+        <v>2966993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -576,6 +647,14 @@
       </c>
       <c r="E9" s="4">
         <v>671469</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>1940498</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" si="1"/>
+        <v>1537565</v>
       </c>
     </row>
   </sheetData>
